--- a/MainTop/08.08.2024/печать_бирки_60cm_150pcs+белые1.xlsx
+++ b/MainTop/08.08.2024/печать_бирки_60cm_150pcs+белые1.xlsx
@@ -203,7 +203,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
+      <selection pane="topLeft" activeCell="M9" activeCellId="0" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
